--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.01065595170272</v>
+        <v>90.36716044904189</v>
       </c>
       <c r="D2" t="n">
-        <v>2.563186707310093</v>
+        <v>2.630891331181146</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.20819528095279</v>
+        <v>88.72538962636224</v>
       </c>
       <c r="D3" t="n">
-        <v>3.349663230520151</v>
+        <v>3.182154870613164</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.81075297744518</v>
+        <v>88.12842256052247</v>
       </c>
       <c r="D4" t="n">
-        <v>2.928448664137947</v>
+        <v>3.028589411322705</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.94084119902237</v>
+        <v>86.84844697264506</v>
       </c>
       <c r="D5" t="n">
-        <v>3.045553894547864</v>
+        <v>3.058184175430137</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.48492514958572</v>
+        <v>85.4308176136296</v>
       </c>
       <c r="D6" t="n">
-        <v>3.549453746753265</v>
+        <v>3.056618503511868</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.09396070473259</v>
+        <v>85.45673002494532</v>
       </c>
       <c r="D7" t="n">
-        <v>3.189454526211775</v>
+        <v>3.339163956490225</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.91955263825366</v>
+        <v>83.42442575604964</v>
       </c>
       <c r="D8" t="n">
-        <v>3.26531190638833</v>
+        <v>3.471098637152683</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.40369442480538</v>
+        <v>83.39762622225668</v>
       </c>
       <c r="D9" t="n">
-        <v>3.572502129620705</v>
+        <v>2.757418925109755</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.24614319723412</v>
+        <v>81.47068828087026</v>
       </c>
       <c r="D10" t="n">
-        <v>3.205625929358075</v>
+        <v>3.432564276761193</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.02705458238273</v>
+        <v>81.25487781544888</v>
       </c>
       <c r="D11" t="n">
-        <v>3.447110803316364</v>
+        <v>2.975766680889826</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.41174040167421</v>
+        <v>79.50522177191795</v>
       </c>
       <c r="D12" t="n">
-        <v>4.483896190425925</v>
+        <v>4.255544103555574</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.23875472534637</v>
+        <v>78.95284358216891</v>
       </c>
       <c r="D13" t="n">
-        <v>3.553389495867529</v>
+        <v>3.392494257454445</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.58681198583807</v>
+        <v>77.65886941109237</v>
       </c>
       <c r="D14" t="n">
-        <v>3.660759607424326</v>
+        <v>3.145646285974677</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.149448808975</v>
+        <v>77.29366438843759</v>
       </c>
       <c r="D15" t="n">
-        <v>3.573746682729405</v>
+        <v>3.809846377188936</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.5439251281615</v>
+        <v>76.0759342434757</v>
       </c>
       <c r="D16" t="n">
-        <v>3.66738382194752</v>
+        <v>3.367526404551089</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.43751748642228</v>
+        <v>74.75509874126028</v>
       </c>
       <c r="D17" t="n">
-        <v>4.163937985982979</v>
+        <v>3.369323629191351</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.8088330893442</v>
+        <v>74.22819317029627</v>
       </c>
       <c r="D18" t="n">
-        <v>4.574927372551347</v>
+        <v>3.605614124355851</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.66817408564781</v>
+        <v>72.67539491129547</v>
       </c>
       <c r="D19" t="n">
-        <v>3.997015284260705</v>
+        <v>4.234109174177012</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.35804278496008</v>
+        <v>71.65434235740295</v>
       </c>
       <c r="D20" t="n">
-        <v>4.236187015928216</v>
+        <v>4.226816373008054</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.35566723913108</v>
+        <v>70.73478484762519</v>
       </c>
       <c r="D21" t="n">
-        <v>3.840464352128986</v>
+        <v>3.555085808864873</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.07081499068619</v>
+        <v>70.91043407927341</v>
       </c>
       <c r="D22" t="n">
-        <v>4.395532646256414</v>
+        <v>3.883647315946642</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.35885869522018</v>
+        <v>69.21946714799709</v>
       </c>
       <c r="D23" t="n">
-        <v>3.884365105424877</v>
+        <v>4.074910192551735</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.38508591450997</v>
+        <v>68.09980459021696</v>
       </c>
       <c r="D24" t="n">
-        <v>4.01599496701163</v>
+        <v>3.753211777628909</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5744573454004</v>
+        <v>66.11145951072069</v>
       </c>
       <c r="D25" t="n">
-        <v>4.41613517774965</v>
+        <v>4.577390641364518</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.80430015135875</v>
+        <v>65.44336163786373</v>
       </c>
       <c r="D26" t="n">
-        <v>4.384796119973579</v>
+        <v>4.089969499663085</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.52418260152327</v>
+        <v>64.50885335819451</v>
       </c>
       <c r="D27" t="n">
-        <v>4.452438906656464</v>
+        <v>3.996804642696622</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.15823776604428</v>
+        <v>64.06948166528326</v>
       </c>
       <c r="D28" t="n">
-        <v>3.976471691701265</v>
+        <v>3.847665774953754</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.36031546193357</v>
+        <v>61.89965701201641</v>
       </c>
       <c r="D29" t="n">
-        <v>4.43031426279133</v>
+        <v>4.833597122141042</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.87321104616033</v>
+        <v>61.21643647324841</v>
       </c>
       <c r="D30" t="n">
-        <v>4.532365342549578</v>
+        <v>4.831214002965632</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.12180987237048</v>
+        <v>60.64945152749601</v>
       </c>
       <c r="D31" t="n">
-        <v>4.719010513982431</v>
+        <v>4.381864644894413</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.98325710844702</v>
+        <v>59.86378929974626</v>
       </c>
       <c r="D32" t="n">
-        <v>4.23512566429225</v>
+        <v>4.547476608973704</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.32156039245411</v>
+        <v>58.80553381301897</v>
       </c>
       <c r="D33" t="n">
-        <v>4.990928948663091</v>
+        <v>4.676820662150253</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.74733623373186</v>
+        <v>58.25184811473885</v>
       </c>
       <c r="D34" t="n">
-        <v>3.91430624736684</v>
+        <v>4.728790286776408</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.8525214732935</v>
+        <v>56.58854630384022</v>
       </c>
       <c r="D35" t="n">
-        <v>4.360348084368172</v>
+        <v>3.805650720833798</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.74995544115353</v>
+        <v>55.79341314935274</v>
       </c>
       <c r="D36" t="n">
-        <v>4.659328310338039</v>
+        <v>4.808271759937324</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.53572990771236</v>
+        <v>53.9630432762506</v>
       </c>
       <c r="D37" t="n">
-        <v>5.115394784511476</v>
+        <v>4.988444339007001</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.31708311733647</v>
+        <v>53.74704126544083</v>
       </c>
       <c r="D38" t="n">
-        <v>4.573833724876169</v>
+        <v>4.883795240340963</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.17866074358793</v>
+        <v>52.12699866551291</v>
       </c>
       <c r="D39" t="n">
-        <v>5.060821107442284</v>
+        <v>4.568704537746857</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.3480247822409</v>
+        <v>52.13884832988865</v>
       </c>
       <c r="D40" t="n">
-        <v>4.869906799774823</v>
+        <v>5.344629361559997</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.14174823039625</v>
+        <v>50.69718978346142</v>
       </c>
       <c r="D41" t="n">
-        <v>5.431444893586022</v>
+        <v>5.181956778415667</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.72672873139866</v>
+        <v>49.14320133658433</v>
       </c>
       <c r="D42" t="n">
-        <v>5.458716615041162</v>
+        <v>4.417790115769454</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.91569704618016</v>
+        <v>48.75796319424172</v>
       </c>
       <c r="D43" t="n">
-        <v>5.069290233617298</v>
+        <v>4.701497060617505</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.10775790529296</v>
+        <v>48.32828355466502</v>
       </c>
       <c r="D44" t="n">
-        <v>5.133422788929445</v>
+        <v>4.815456756513796</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.00828633170324</v>
+        <v>46.8247522247726</v>
       </c>
       <c r="D45" t="n">
-        <v>4.72442690754649</v>
+        <v>5.018913275251909</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.66655396400769</v>
+        <v>46.16670635464995</v>
       </c>
       <c r="D46" t="n">
-        <v>5.601394848633586</v>
+        <v>4.640214016154072</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.61044431422413</v>
+        <v>44.21916823635701</v>
       </c>
       <c r="D47" t="n">
-        <v>4.96233200970273</v>
+        <v>5.517074927562775</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.75226752279316</v>
+        <v>43.88787205063908</v>
       </c>
       <c r="D48" t="n">
-        <v>6.026358764373033</v>
+        <v>4.861216315979391</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.76764023477888</v>
+        <v>42.73452547201929</v>
       </c>
       <c r="D49" t="n">
-        <v>5.063666493869705</v>
+        <v>5.45072188356419</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.00100611691001</v>
+        <v>41.14233056831218</v>
       </c>
       <c r="D50" t="n">
-        <v>5.431870080317379</v>
+        <v>5.720243439252799</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.5483559112438</v>
+        <v>40.20662401617402</v>
       </c>
       <c r="D51" t="n">
-        <v>5.4604783754094</v>
+        <v>5.092126914987533</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.44419697509359</v>
+        <v>39.95309347019922</v>
       </c>
       <c r="D52" t="n">
-        <v>5.339743912298561</v>
+        <v>5.490711731192212</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.82178330368549</v>
+        <v>38.45128932227787</v>
       </c>
       <c r="D53" t="n">
-        <v>5.007942204875912</v>
+        <v>5.913639357448509</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.78101283332799</v>
+        <v>37.04257289952582</v>
       </c>
       <c r="D54" t="n">
-        <v>5.687265076381121</v>
+        <v>5.712808763286339</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.41304152688147</v>
+        <v>37.13295287168301</v>
       </c>
       <c r="D55" t="n">
-        <v>6.449221047018812</v>
+        <v>6.268327888355467</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.21760022818881</v>
+        <v>35.78723066634153</v>
       </c>
       <c r="D56" t="n">
-        <v>5.813113102723347</v>
+        <v>5.494853228248972</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.9833771337589</v>
+        <v>34.38558688258505</v>
       </c>
       <c r="D57" t="n">
-        <v>5.806766489133142</v>
+        <v>5.022674098210893</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.32232997145806</v>
+        <v>33.26215143718778</v>
       </c>
       <c r="D58" t="n">
-        <v>5.248819755036181</v>
+        <v>5.691986285193999</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.77772712226926</v>
+        <v>33.38674358062561</v>
       </c>
       <c r="D59" t="n">
-        <v>6.359880432443305</v>
+        <v>5.115009810648212</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.66588722447507</v>
+        <v>31.22943652387356</v>
       </c>
       <c r="D60" t="n">
-        <v>5.615111747136339</v>
+        <v>5.228411372832913</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.94179867216215</v>
+        <v>31.2777567285872</v>
       </c>
       <c r="D61" t="n">
-        <v>6.655886664887086</v>
+        <v>6.162862925287047</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.17067750538662</v>
+        <v>29.92034622970094</v>
       </c>
       <c r="D62" t="n">
-        <v>5.967339381265427</v>
+        <v>5.7233681467491</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.44558618220375</v>
+        <v>28.41391186015618</v>
       </c>
       <c r="D63" t="n">
-        <v>5.972071853927176</v>
+        <v>5.816508383266244</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.95390766629683</v>
+        <v>28.01346956106492</v>
       </c>
       <c r="D64" t="n">
-        <v>6.122349970436194</v>
+        <v>6.593202773499308</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.17709073714261</v>
+        <v>26.29463986575913</v>
       </c>
       <c r="D65" t="n">
-        <v>6.020939533617713</v>
+        <v>5.841923937254414</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.52090578770042</v>
+        <v>25.58629077748078</v>
       </c>
       <c r="D66" t="n">
-        <v>6.476290156403104</v>
+        <v>5.942660662110129</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.50117787137389</v>
+        <v>24.23229683273037</v>
       </c>
       <c r="D67" t="n">
-        <v>6.392328234492546</v>
+        <v>6.336666769066016</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88277791460053</v>
+        <v>23.83960403798027</v>
       </c>
       <c r="D68" t="n">
-        <v>6.065790210864671</v>
+        <v>6.776552262486912</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.23546093190415</v>
+        <v>21.67304246577541</v>
       </c>
       <c r="D69" t="n">
-        <v>6.212333068860641</v>
+        <v>6.933584391830818</v>
       </c>
     </row>
   </sheetData>
